--- a/c3540.xlsx
+++ b/c3540.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasarayv\Downloads\iot\reports\final\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2E0CCE-D80C-4F10-A544-D096FDE2C01A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="20370" yWindow="-3960" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="area" sheetId="1" r:id="rId1"/>
     <sheet name="power" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>RN</t>
   </si>
@@ -51,14 +57,37 @@
   </si>
   <si>
     <t>FR</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>KeySize=32</t>
+  </si>
+  <si>
+    <t>KeySize=64</t>
+  </si>
+  <si>
+    <t>KeySize=128</t>
+  </si>
+  <si>
+    <t>KeySize=256</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,14 +115,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -140,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -172,9 +215,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,6 +267,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -381,268 +460,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
-        <v>32</v>
-      </c>
-      <c r="D1">
-        <v>64</v>
-      </c>
-      <c r="E1">
-        <v>128</v>
-      </c>
-      <c r="F1">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" s="2">
+        <v>-8.6689423991587753E-5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6.1416927326549218E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9.8326074104738131E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-3.9422093600390243E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.01</v>
-      </c>
-      <c r="C2">
-        <v>-8.668942399158775e-05</v>
-      </c>
-      <c r="D2">
-        <v>0.006141692732654922</v>
-      </c>
-      <c r="E2">
-        <v>0.009832607410473813</v>
-      </c>
-      <c r="F2">
-        <v>-0.03942209360039024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.01</v>
-      </c>
-      <c r="C3">
+      <c r="C3" s="2">
+        <v>6.6775464187854138E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-3.3933802033801739E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-8.1294073526594181E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0.006677546418785414</v>
-      </c>
-      <c r="E3">
-        <v>-0.003393380203380174</v>
-      </c>
-      <c r="F3">
-        <v>-8.129407352659418e-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.01</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>-0.003955491024276483</v>
-      </c>
-      <c r="E4">
-        <v>0.0008300165118363316</v>
-      </c>
-      <c r="F4">
-        <v>0.009984021891806413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="C4" s="2">
+        <v>-3.9554910242764829E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8.3001651183633161E-4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.9840218918064126E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.01</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2">
         <v>-0.1930397068023168</v>
       </c>
-      <c r="D5">
-        <v>-0.1959344590557666</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="2">
+        <v>-0.19593445905576659</v>
+      </c>
+      <c r="D5" s="2">
         <v>-0.1967940907692107</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="2">
         <v>-0.1927376531206981</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.01</v>
-      </c>
-      <c r="C6">
-        <v>-0.1937609114392081</v>
-      </c>
-      <c r="D6">
-        <v>-0.1942556988311915</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="2">
+        <v>-0.19376091143920809</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-0.19425569883119151</v>
+      </c>
+      <c r="D6" s="2">
         <v>-0.2043528565376109</v>
       </c>
-      <c r="F6">
-        <v>-0.1898115075512128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="E6" s="2">
+        <v>-0.18981150755121279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.01</v>
-      </c>
-      <c r="C7">
-        <v>-0.1946443575509557</v>
-      </c>
-      <c r="D7">
-        <v>-0.1946443575509557</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="2">
+        <v>-0.19464435755095569</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-0.19464435755095569</v>
+      </c>
+      <c r="D7" s="2">
         <v>-0.2079806445907805</v>
       </c>
-      <c r="F7">
-        <v>-0.1975594959998734</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="E7" s="2">
+        <v>-0.19755949599987341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.01</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="2">
         <v>-0.1829372503772457</v>
       </c>
-      <c r="D8">
-        <v>-0.1754788051301804</v>
-      </c>
-      <c r="E8">
-        <v>-0.1802431685567867</v>
-      </c>
-      <c r="F8">
-        <v>-0.1703808611135512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="C8" s="2">
+        <v>-0.17547880513018041</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-0.18024316855678671</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-0.17038086111355119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.01</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2">
         <v>-0.1829372503772457</v>
       </c>
-      <c r="D9">
-        <v>-0.175790625527223</v>
-      </c>
-      <c r="E9">
-        <v>-0.1802431685567867</v>
-      </c>
-      <c r="F9">
-        <v>-0.1703808611135512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="C9" s="2">
+        <v>-0.17579062552722299</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-0.18024316855678671</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-0.17038086111355119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.01</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2">
         <v>0.1219396006960658</v>
       </c>
-      <c r="D10">
-        <v>-0.06805017206667027</v>
-      </c>
-      <c r="E10">
-        <v>0.4281513886543653</v>
-      </c>
-      <c r="F10">
+      <c r="C10" s="2">
+        <v>-6.8050172066670273E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.42815138865436531</v>
+      </c>
+      <c r="E10" s="2">
         <v>1.185059981460626</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.01</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2">
         <v>0.1219396006960658</v>
       </c>
-      <c r="D11">
-        <v>0.02984867230694974</v>
-      </c>
-      <c r="E11">
-        <v>0.3525248037126937</v>
-      </c>
-      <c r="F11">
-        <v>1.078983123709566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="C11" s="2">
+        <v>2.984867230694974E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.35252480371269368</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.0789831237095659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.01</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="2">
         <v>0.1219396006960658</v>
       </c>
-      <c r="D12">
-        <v>-0.01411117688335952</v>
-      </c>
-      <c r="E12">
-        <v>0.4970520500407257</v>
-      </c>
-      <c r="F12">
+      <c r="C12" s="2">
+        <v>-1.4111176883359521E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.49705205004072572</v>
+      </c>
+      <c r="E12" s="2">
         <v>1.244800355508531</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.01</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="2">
         <v>0.1219396006960658</v>
       </c>
-      <c r="D13">
+      <c r="C13" s="2">
         <v>0.2214147987280885</v>
       </c>
-      <c r="E13">
-        <v>1.142012760521743</v>
-      </c>
-      <c r="F13">
-        <v>2.929324732766774</v>
+      <c r="D13" s="2">
+        <v>1.1420127605217429</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.9293247327667742</v>
       </c>
     </row>
   </sheetData>
@@ -651,268 +700,238 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
-        <v>32</v>
-      </c>
-      <c r="D1">
-        <v>64</v>
-      </c>
-      <c r="E1">
-        <v>128</v>
-      </c>
-      <c r="F1">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" s="2">
+        <v>-1.9448500760471159E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.2059454817643311E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-1.434443672094911E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-4.3698458154598642E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.01</v>
-      </c>
-      <c r="C2">
-        <v>-0.01944850076047116</v>
-      </c>
-      <c r="D2">
-        <v>0.002205945481764331</v>
-      </c>
-      <c r="E2">
-        <v>-0.01434443672094911</v>
-      </c>
-      <c r="F2">
-        <v>-0.04369845815459864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.01</v>
-      </c>
-      <c r="C3">
+      <c r="C3" s="2">
+        <v>-3.2058735987173532E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-3.9674662108313233E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9.2195982969415086E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>-0.003205873598717353</v>
-      </c>
-      <c r="E3">
-        <v>-0.03967466210831323</v>
-      </c>
-      <c r="F3">
-        <v>0.009219598296941509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.01</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>-0.0007912650515472723</v>
-      </c>
-      <c r="E4">
-        <v>0.002321951115483185</v>
-      </c>
-      <c r="F4">
-        <v>0.01760711814980748</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="C4" s="2">
+        <v>-7.9126505154727229E-4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.3219511154831851E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.760711814980748E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.01</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2">
         <v>-0.121894528266124</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="2">
         <v>-0.105018374299623</v>
       </c>
-      <c r="E5">
-        <v>-0.1269447259812727</v>
-      </c>
-      <c r="F5">
-        <v>-0.1171362749984328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="D5" s="2">
+        <v>-0.12694472598127271</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-0.11713627499843279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.01</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2">
         <v>-0.1278906039297415</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="2">
         <v>-0.1239646129502366</v>
       </c>
-      <c r="E6">
-        <v>-0.1367748705691502</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="2">
+        <v>-0.13677487056915019</v>
+      </c>
+      <c r="E6" s="2">
         <v>-0.1207728953480271</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.01</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2">
         <v>-0.111789352888954</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="2">
         <v>-0.1110536087587748</v>
       </c>
-      <c r="E7">
-        <v>-0.1178142920779184</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="2">
+        <v>-0.11781429207791839</v>
+      </c>
+      <c r="E7" s="2">
         <v>-0.1178082252222722</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.01</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="2">
         <v>-0.1084768497061528</v>
       </c>
-      <c r="D8">
-        <v>-0.1064712943048221</v>
-      </c>
-      <c r="E8">
-        <v>-0.08564028583346932</v>
-      </c>
-      <c r="F8">
-        <v>-0.1033814263398238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="C8" s="2">
+        <v>-0.10647129430482211</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-8.5640285833469318E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-0.10338142633982381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.01</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2">
         <v>-0.1084768497061528</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="2">
         <v>-0.1052566362668174</v>
       </c>
-      <c r="E9">
-        <v>-0.08564028583346932</v>
-      </c>
-      <c r="F9">
-        <v>-0.1033814263398238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="D9" s="2">
+        <v>-8.5640285833469318E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-0.10338142633982381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.01</v>
-      </c>
-      <c r="C10">
-        <v>0.0228692881243506</v>
-      </c>
-      <c r="D10">
-        <v>-0.02254737708688348</v>
-      </c>
-      <c r="E10">
-        <v>0.09831615340761483</v>
-      </c>
-      <c r="F10">
-        <v>0.3787607840657161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="B10" s="2">
+        <v>2.2869288124350601E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-2.254737708688348E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.8316153407614834E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.37876078406571612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.01</v>
-      </c>
-      <c r="C11">
-        <v>0.0228692881243506</v>
-      </c>
-      <c r="D11">
-        <v>-0.06286622895835225</v>
-      </c>
-      <c r="E11">
-        <v>0.01168991160958995</v>
-      </c>
-      <c r="F11">
-        <v>0.3251963317216944</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="B11" s="2">
+        <v>2.2869288124350601E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-6.2866228958352255E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.168991160958995E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.32519633172169438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.01</v>
-      </c>
-      <c r="C12">
-        <v>0.0228692881243506</v>
-      </c>
-      <c r="D12">
-        <v>-0.01098873017218295</v>
-      </c>
-      <c r="E12">
-        <v>0.06543545040244392</v>
-      </c>
-      <c r="F12">
-        <v>0.4953754933226898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="B12" s="2">
+        <v>2.2869288124350601E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-1.0988730172182951E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6.5435450402443918E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.49537549332268982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.01</v>
-      </c>
-      <c r="C13">
-        <v>0.0228692881243506</v>
-      </c>
-      <c r="D13">
-        <v>0.3086316096783628</v>
-      </c>
-      <c r="E13">
+      <c r="B13" s="2">
+        <v>2.2869288124350601E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.30863160967836278</v>
+      </c>
+      <c r="D13" s="2">
         <v>1.193076394030141</v>
       </c>
-      <c r="F13">
-        <v>2.755751333191528</v>
+      <c r="E13" s="2">
+        <v>2.7557513331915282</v>
       </c>
     </row>
   </sheetData>
